--- a/appendix/mean_4ds_cohen_kappa.xlsx
+++ b/appendix/mean_4ds_cohen_kappa.xlsx
@@ -525,7 +525,7 @@
         <v>0.466</v>
       </c>
       <c r="G3" t="n">
-        <v>0.489</v>
+        <v>0.49</v>
       </c>
       <c r="H3" t="n">
         <v>0.529</v>

--- a/appendix/mean_4ds_cohen_kappa.xlsx
+++ b/appendix/mean_4ds_cohen_kappa.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.297</v>
+        <v>0.312</v>
       </c>
       <c r="D5" t="n">
-        <v>0.415</v>
+        <v>0.441</v>
       </c>
       <c r="E5" t="n">
-        <v>0.459</v>
+        <v>0.48</v>
       </c>
       <c r="F5" t="n">
-        <v>0.518</v>
+        <v>0.54</v>
       </c>
       <c r="G5" t="n">
-        <v>0.538</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="H5" t="n">
-        <v>0.555</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="6">
@@ -618,23 +618,23 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.297</v>
+        <v>0.312</v>
       </c>
       <c r="D7" t="n">
         <v>0.446</v>
       </c>
       <c r="E7" t="n">
-        <v>0.477</v>
+        <v>0.48</v>
       </c>
       <c r="F7" t="n">
-        <v>0.527</v>
+        <v>0.54</v>
       </c>
       <c r="G7" t="n">
         <v>0.5590000000000001</v>
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.286</v>
+        <v>0.305</v>
       </c>
       <c r="D8" t="n">
-        <v>0.494</v>
+        <v>0.522</v>
       </c>
       <c r="E8" t="n">
         <v>0.5629999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>0.613</v>
+        <v>0.607</v>
       </c>
       <c r="G8" t="n">
-        <v>0.636</v>
+        <v>0.64</v>
       </c>
       <c r="H8" t="n">
-        <v>0.651</v>
+        <v>0.654</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.262</v>
+        <v>0.266</v>
       </c>
       <c r="C9" t="n">
-        <v>0.388</v>
+        <v>0.412</v>
       </c>
       <c r="D9" t="n">
-        <v>0.529</v>
+        <v>0.547</v>
       </c>
       <c r="E9" t="n">
-        <v>0.5629999999999999</v>
+        <v>0.575</v>
       </c>
       <c r="F9" t="n">
-        <v>0.592</v>
+        <v>0.591</v>
       </c>
       <c r="G9" t="n">
-        <v>0.625</v>
+        <v>0.624</v>
       </c>
       <c r="H9" t="n">
-        <v>0.641</v>
+        <v>0.638</v>
       </c>
     </row>
   </sheetData>
